--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96211F92-56C4-4797-8972-153E31370529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6306D-CE54-46FC-9DDE-32C67DE6F76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,16 @@
     <t>localhost:3000/employment/refill</t>
   </si>
   <si>
-    <t>{  "inforUser":"admin", "soTien":100000  "maGiaoDichVien": "admin" }</t>
-  </si>
-  <si>
     <t>localhost:3000/debt/add-debt</t>
+  </si>
+  <si>
+    <t>localhost:3000/notify/add-notify</t>
+  </si>
+  <si>
+    <t>{
+     "userNhan":"admin",
+     "noiDung":"đóng tiền điện tháng 2"
+ }</t>
   </si>
   <si>
     <t>{
@@ -93,18 +99,12 @@
      "soTaiKhoanNo":"082434343243",
      "taiKhoanDoi":"admin",
      "taiKhoanNo":"hiep",
-     "soTien":9000000,
+     "soTien":"9000000",
      "noiDung":"Tien dien"
  }</t>
   </si>
   <si>
-    <t>localhost:3000/notify/add-notify</t>
-  </si>
-  <si>
-    <t>{
-     "userNhan":"admin",
-     "noiDung":"đóng tiền điện tháng 2"
- }</t>
+    <t>{  "inforUser":"admin", "soTien":100000  ,"maGiaoDichVien": "admin" }</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,23 +536,23 @@
         <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6306D-CE54-46FC-9DDE-32C67DE6F76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0F0FE5-387F-45B4-8197-1104557D4570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>link API</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>localhost:3000/transfer/getUserReceive</t>
-  </si>
-  <si>
-    <t>{ "maKH":"123434", "soTk":"028100024343", "tenGoiNho":"Nguyen Van A", "nganHang":"VCB" }</t>
   </si>
   <si>
     <t>localhost:3000/transfer/set-up-user-receive</t>
@@ -106,12 +103,39 @@
   <si>
     <t>{  "inforUser":"admin", "soTien":100000  ,"maGiaoDichVien": "admin" }</t>
   </si>
+  <si>
+    <t>{
+    "tenGoiNho":"Nguyen Van A"
+ }</t>
+  </si>
+  <si>
+    <t>localhost:3000/transfer/load-info-receive</t>
+  </si>
+  <si>
+    <t>{ "soTaiKhoan":"02810002324343" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+     "tenDangNhap":"123434",
+     "soTk":"028100024343",
+     "tenGoiNho":"Nguyen Van A",
+     "nganHang":"VCB"
+  }</t>
+  </si>
+  <si>
+    <t>localhost:3000/transfer/load-list-info-receive</t>
+  </si>
+  <si>
+    <t>{
+    "tenDangNhap":"admin"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +152,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444950"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -157,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -168,6 +204,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -448,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,44 +554,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" s="4" customFormat="1" ht="16.5">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1" ht="16.5">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="4" customFormat="1">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0F0FE5-387F-45B4-8197-1104557D4570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D0277-2065-4D15-ABAE-09517B88E7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>link API</t>
   </si>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -207,6 +207,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -222,6 +225,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,12 +609,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="4" customFormat="1">
+    <row r="14" spans="1:2" s="4" customFormat="1" ht="45">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="99">
+      <c r="B17" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D0277-2065-4D15-ABAE-09517B88E7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CC52AD-3E15-4DE8-9B2A-C2198DA31804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>link API</t>
   </si>
@@ -128,6 +128,38 @@
   <si>
     <t>{
     "tenDangNhap":"admin"
+}</t>
+  </si>
+  <si>
+    <t>localhost:3000/api/ib-hn/add-other-bank</t>
+  </si>
+  <si>
+    <t>{
+ "maNganHang":"NH_ABC",
+ "tenNganHang":"Ngan hang Acb"
+}</t>
+  </si>
+  <si>
+    <t>localhost:3000/api/ib-hn/get-list-info-bank</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{
+        "tenNganHangThuHuong": "Ngân hàng Sài Gòn",
+        "soTaiKhoanNganNganHangThuHuong":"028100023333",
+        "tenNguoiNhan":"Tran Van B",
+        "soTienChuyen":"100000"
+}</t>
+  </si>
+  <si>
+    <t>localhost:3000/api/ib-hn/info-account</t>
+  </si>
+  <si>
+    <t>{
+   "soTk":"028100023232",
+    "maNH":"NH_ABC"  
 }</t>
   </si>
 </sst>
@@ -207,9 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -225,10 +255,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,7 +534,7 @@
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1">
+    <row r="1" spans="1:3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -524,12 +550,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -537,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -553,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -561,7 +587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" ht="16.5">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -569,7 +595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="4" customFormat="1" ht="16.5">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -577,7 +603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5">
+    <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -585,7 +611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="4" customFormat="1">
+    <row r="11" spans="1:3" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -593,7 +619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="4" customFormat="1">
+    <row r="12" spans="1:3" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -601,7 +627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -609,17 +635,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="4" customFormat="1" ht="45">
+    <row r="14" spans="1:3" s="4" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="99">
-      <c r="B17" s="9" t="s">
-        <v>24</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1">
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="4" customFormat="1" ht="16.5">
+      <c r="A17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CC52AD-3E15-4DE8-9B2A-C2198DA31804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F31CA6-E69D-4A2A-B033-0F0CDB28E614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,8 +523,8 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,11 +611,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="120">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F31CA6-E69D-4A2A-B033-0F0CDB28E614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02B9E4-9A1D-4D2D-B538-B024FEC8DBBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>link API</t>
   </si>
@@ -88,16 +88,6 @@
     <t>{
      "userNhan":"admin",
      "noiDung":"đóng tiền điện tháng 2"
- }</t>
-  </si>
-  <si>
-    <t>{
-     "soTaiKhoanDoi":"0034434343",
-     "soTaiKhoanNo":"082434343243",
-     "taiKhoanDoi":"admin",
-     "taiKhoanNo":"hiep",
-     "soTien":"9000000",
-     "noiDung":"Tien dien"
  }</t>
   </si>
   <si>
@@ -162,12 +152,59 @@
     "maNH":"NH_ABC"  
 }</t>
   </si>
+  <si>
+    <t>localhost:3000/notify/load-notify</t>
+  </si>
+  <si>
+    <t>{
+    "taiKhoanHienTai":"admin"
+}</t>
+  </si>
+  <si>
+    <t>localhost:3000/notify/accept-notify</t>
+  </si>
+  <si>
+    <t>{
+    "id":1
+}</t>
+  </si>
+  <si>
+    <t>localhost:3000/debt/reject-notify</t>
+  </si>
+  <si>
+    <t>{
+    "taiKhoanDoi":"admin",
+    "taiKhoanNo":"hiep",
+    "soTien":9000000,
+    "noiDung":"Tien dien"
+}</t>
+  </si>
+  <si>
+    <t>localhost:3000/debt/load-debt</t>
+  </si>
+  <si>
+    <t>localhost:3000/debt/delete-debt</t>
+  </si>
+  <si>
+    <t>{
+    "idNhacNo":"admin",
+    "noiDungXoa":"Đã thanh toán tháng trước"
+}</t>
+  </si>
+  <si>
+    <t>localhost:3000/debt/payment-debt</t>
+  </si>
+  <si>
+    <t>{
+    "idNhacNo":"1",
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,27 +213,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Inherit"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF444950"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <color rgb="FF505050"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF505050"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444950"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,21 +274,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -520,156 +576,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="54.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="16.5">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="16.5">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="120">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1">
-      <c r="A14" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1">
-      <c r="A16" s="8" t="s">
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="4" customFormat="1" ht="16.5">
-      <c r="A17" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02B9E4-9A1D-4D2D-B538-B024FEC8DBBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCC846-29D5-4471-8A76-069D0731728F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>link API</t>
   </si>
@@ -134,14 +134,6 @@
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>{
-        "tenNganHangThuHuong": "Ngân hàng Sài Gòn",
-        "soTaiKhoanNganNganHangThuHuong":"028100023333",
-        "tenNguoiNhan":"Tran Van B",
-        "soTienChuyen":"100000"
-}</t>
   </si>
   <si>
     <t>localhost:3000/api/ib-hn/info-account</t>
@@ -579,8 +571,8 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +729,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -749,10 +741,10 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -764,10 +756,10 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -779,10 +771,10 @@
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -809,10 +801,10 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -824,10 +816,10 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -839,10 +831,10 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -901,9 +893,7 @@
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
@@ -916,10 +906,10 @@
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FCC846-29D5-4471-8A76-069D0731728F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4884026C-72B9-4A42-A532-35CF78B17CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,8 +571,8 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4884026C-72B9-4A42-A532-35CF78B17CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2654AF02-DC86-47A4-8057-82B4B2A09428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>link API</t>
   </si>
@@ -189,6 +190,20 @@
   <si>
     <t>{
     "idNhacNo":"1",
+}</t>
+  </si>
+  <si>
+    <t>localhost:3000/debt/update-debt</t>
+  </si>
+  <si>
+    <t>{
+    "id":4,
+    "taiKhoanDoi":"admin",
+    "taiKhoanNo":"hiep",
+    "soTien":9000000,
+    "noiDung":"Tien dien",
+    "trangThai":0,
+    "phanHoi":"Khong thich tra"
 }</t>
   </si>
 </sst>
@@ -571,8 +586,8 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,11 +784,11 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="6"/>
@@ -784,11 +799,11 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="6"/>
@@ -799,11 +814,11 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="6"/>
@@ -814,11 +829,11 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="6"/>
@@ -919,16 +934,20 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2654AF02-DC86-47A4-8057-82B4B2A09428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93D3D09-9EB4-4B59-9146-0F415895BE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>link API</t>
   </si>
@@ -206,12 +205,15 @@
     "phanHoi":"Khong thich tra"
 }</t>
   </si>
+  <si>
+    <t>localhost:3000/transfer/load-info-receive-from-stk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +256,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444950"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -281,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -303,6 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -583,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,6 +958,14 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/api-info.xlsx
+++ b/api-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01. Project\InternetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93D3D09-9EB4-4B59-9146-0F415895BE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA304B-6E17-41D0-A7DA-DA37B93F72AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
